--- a/data/description/data.xlsx
+++ b/data/description/data.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4843b99104bbb29/문서/code/ipython/XAI/data/description/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhzns\OneDrive\code\ipython\XAI\data\description\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13320" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13320" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="onehot" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="index" sheetId="4" r:id="rId3"/>
+    <sheet name="output" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="35">
   <si>
     <t>basketball</t>
   </si>
@@ -124,12 +125,18 @@
     <t>&lt;SOS&gt;</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>&lt;SOS&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,8 +296,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -468,6 +483,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -715,9 +736,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -3326,7 +3350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -7193,133 +7217,180 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>31</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>22</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>19</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>23</v>
       </c>
       <c r="B16">
         <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
@@ -7329,6 +7400,9 @@
       <c r="B17">
         <v>16</v>
       </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
@@ -7337,6 +7411,9 @@
       <c r="B18">
         <v>17</v>
       </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
@@ -7345,6 +7422,9 @@
       <c r="B19">
         <v>18</v>
       </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
@@ -7353,6 +7433,9 @@
       <c r="B20">
         <v>19</v>
       </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
@@ -7361,6 +7444,9 @@
       <c r="B21">
         <v>20</v>
       </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
@@ -7369,6 +7455,9 @@
       <c r="B22">
         <v>21</v>
       </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
@@ -7377,6 +7466,9 @@
       <c r="B23">
         <v>22</v>
       </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
@@ -7385,6 +7477,9 @@
       <c r="B24">
         <v>23</v>
       </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
@@ -7393,6 +7488,9 @@
       <c r="B25">
         <v>24</v>
       </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
@@ -7401,6 +7499,9 @@
       <c r="B26">
         <v>25</v>
       </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
@@ -7409,6 +7510,9 @@
       <c r="B27">
         <v>26</v>
       </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
@@ -7508,6 +7612,201 @@
       </c>
       <c r="F33">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="str">
+        <f>VLOOKUP(B1,index!$B$1:$C$27,2,FALSE)</f>
+        <v>&lt;SOS&gt;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="str">
+        <f>VLOOKUP(B2,index!$B$1:$C$27,2,FALSE)</f>
+        <v>this</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="str">
+        <f>VLOOKUP(B3,index!$B$1:$C$27,2,FALSE)</f>
+        <v>ball</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="str">
+        <f>VLOOKUP(B4,index!$B$1:$C$27,2,FALSE)</f>
+        <v>is</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="str">
+        <f>VLOOKUP(B5,index!$B$1:$C$27,2,FALSE)</f>
+        <v>is</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6" t="str">
+        <f>VLOOKUP(B6,index!$B$1:$C$27,2,FALSE)</f>
+        <v>and</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7" t="str">
+        <f>VLOOKUP(B7,index!$B$1:$C$27,2,FALSE)</f>
+        <v>brown</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+      <c r="C8" t="str">
+        <f>VLOOKUP(B8,index!$B$1:$C$27,2,FALSE)</f>
+        <v>color</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9" t="str">
+        <f>VLOOKUP(B9,index!$B$1:$C$27,2,FALSE)</f>
+        <v>with</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10" t="str">
+        <f>VLOOKUP(B10,index!$B$1:$C$27,2,FALSE)</f>
+        <v>white</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>16</v>
+      </c>
+      <c r="C11" t="str">
+        <f>VLOOKUP(B11,index!$B$1:$C$27,2,FALSE)</f>
+        <v>pattern</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12" t="str">
+        <f>VLOOKUP(B12,index!$B$1:$C$27,2,FALSE)</f>
+        <v>and</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <f>VLOOKUP(B13,index!$B$1:$C$27,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14">
+        <v>21</v>
+      </c>
+      <c r="C14" t="str">
+        <f>VLOOKUP(B14,index!$B$1:$C$27,2,FALSE)</f>
+        <v>the</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f>VLOOKUP(B15,index!$B$1:$C$27,2,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
